--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{545A5CCD-FAB6-4E3E-837A-8699A4F88B21}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4472AEB2-73BD-41AD-976C-1B26934B04D2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +66,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,13 +102,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,79 +431,90 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1"/>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
